--- a/biology/Botanique/Marqueterie_de_paille/Marqueterie_de_paille.xlsx
+++ b/biology/Botanique/Marqueterie_de_paille/Marqueterie_de_paille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La marqueterie de paille est un art très semblable à celui de la marqueterie de bois, dans lequel la paille remplace le placage de bois. C'est une technique d'Extrême-Orient qui a été importée en Europe (Angleterre, France) au XVIIe siècle.
 Pour obtenir une palette semblable à celle du placage de bois, la paille de blé ou d'avoine est fendue, puis trempée dans l'eau froide, chaude ou tiède. Les bandes, une fois plus ou moins intensivement repassées, présentent une variété de tons allant du doré clair au brun foncé le plus sombre.
